--- a/ETL mediante PowerQuery.xlsx
+++ b/ETL mediante PowerQuery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prestamour\Downloads\Tareas-Ingenieria-de-Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD0C6ADA-654A-4015-9DA7-CF20E531824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA0CD82-BFDF-4A42-B974-25858526E0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{194D4508-2BC8-457C-ACEE-7C1581DDA476}"/>
   </bookViews>
@@ -17,8 +17,6 @@
     <sheet name="transformados" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">transformados!$H$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">transformados!$H$7</definedName>
     <definedName name="DatosExternos_1" localSheetId="1" hidden="1">transformados!$A$1:$F$125</definedName>
     <definedName name="DatosExternos_2" localSheetId="0" hidden="1">'csv original'!$A$1:$J$1002</definedName>
   </definedNames>
@@ -9694,6 +9692,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Numero de Pasajeros antes de 12PM</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38195822397200346"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -43030,7 +43067,7 @@
   <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
